--- a/Arduino-Leonardo/Saved-Data/RLM/RLM_DANATEST.xlsx
+++ b/Arduino-Leonardo/Saved-Data/RLM/RLM_DANATEST.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="124" uniqueCount="21">
   <si>
     <t>ParticipantCode</t>
   </si>
@@ -121,7 +121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,6 +994,801 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F17" s="0">
+        <v>11</v>
+      </c>
+      <c r="G17" s="0">
+        <v>22</v>
+      </c>
+      <c r="H17" s="0">
+        <v>14</v>
+      </c>
+      <c r="I17" s="0">
+        <v>43</v>
+      </c>
+      <c r="J17" s="0">
+        <v>36</v>
+      </c>
+      <c r="K17" s="0">
+        <v>32</v>
+      </c>
+      <c r="L17" s="0">
+        <v>124</v>
+      </c>
+      <c r="M17" s="0">
+        <v>126</v>
+      </c>
+      <c r="N17" s="0">
+        <v>0.64481394162585348</v>
+      </c>
+      <c r="O17" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="P17" s="0">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F18" s="0">
+        <v>11</v>
+      </c>
+      <c r="G18" s="0">
+        <v>22</v>
+      </c>
+      <c r="H18" s="0">
+        <v>14</v>
+      </c>
+      <c r="I18" s="0">
+        <v>43</v>
+      </c>
+      <c r="J18" s="0">
+        <v>39</v>
+      </c>
+      <c r="K18" s="0">
+        <v>34</v>
+      </c>
+      <c r="L18" s="0">
+        <v>114</v>
+      </c>
+      <c r="M18" s="0">
+        <v>126</v>
+      </c>
+      <c r="N18" s="0">
+        <v>0.67481394162585351</v>
+      </c>
+      <c r="O18" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P18" s="0">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F19" s="0">
+        <v>11</v>
+      </c>
+      <c r="G19" s="0">
+        <v>22</v>
+      </c>
+      <c r="H19" s="0">
+        <v>14</v>
+      </c>
+      <c r="I19" s="0">
+        <v>43</v>
+      </c>
+      <c r="J19" s="0">
+        <v>48</v>
+      </c>
+      <c r="K19" s="0">
+        <v>29</v>
+      </c>
+      <c r="L19" s="0">
+        <v>145</v>
+      </c>
+      <c r="M19" s="0">
+        <v>126</v>
+      </c>
+      <c r="N19" s="0">
+        <v>0.58481394162585343</v>
+      </c>
+      <c r="O19" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P19" s="0">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="0">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F20" s="0">
+        <v>11</v>
+      </c>
+      <c r="G20" s="0">
+        <v>22</v>
+      </c>
+      <c r="H20" s="0">
+        <v>14</v>
+      </c>
+      <c r="I20" s="0">
+        <v>44</v>
+      </c>
+      <c r="J20" s="0">
+        <v>16</v>
+      </c>
+      <c r="K20" s="0">
+        <v>31</v>
+      </c>
+      <c r="L20" s="0">
+        <v>134</v>
+      </c>
+      <c r="M20" s="0">
+        <v>135</v>
+      </c>
+      <c r="N20" s="0">
+        <v>0.61811682663654688</v>
+      </c>
+      <c r="O20" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P20" s="0">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="0">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F21" s="0">
+        <v>11</v>
+      </c>
+      <c r="G21" s="0">
+        <v>22</v>
+      </c>
+      <c r="H21" s="0">
+        <v>14</v>
+      </c>
+      <c r="I21" s="0">
+        <v>44</v>
+      </c>
+      <c r="J21" s="0">
+        <v>21</v>
+      </c>
+      <c r="K21" s="0">
+        <v>33</v>
+      </c>
+      <c r="L21" s="0">
+        <v>121</v>
+      </c>
+      <c r="M21" s="0">
+        <v>135</v>
+      </c>
+      <c r="N21" s="0">
+        <v>0.65311682663654691</v>
+      </c>
+      <c r="O21" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P21" s="0">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F22" s="0">
+        <v>11</v>
+      </c>
+      <c r="G22" s="0">
+        <v>22</v>
+      </c>
+      <c r="H22" s="0">
+        <v>14</v>
+      </c>
+      <c r="I22" s="0">
+        <v>44</v>
+      </c>
+      <c r="J22" s="0">
+        <v>25</v>
+      </c>
+      <c r="K22" s="0">
+        <v>30</v>
+      </c>
+      <c r="L22" s="0">
+        <v>139</v>
+      </c>
+      <c r="M22" s="0">
+        <v>135</v>
+      </c>
+      <c r="N22" s="0">
+        <v>0.60311682663654687</v>
+      </c>
+      <c r="O22" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P22" s="0">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="0">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0">
+        <v>3</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F23" s="0">
+        <v>11</v>
+      </c>
+      <c r="G23" s="0">
+        <v>22</v>
+      </c>
+      <c r="H23" s="0">
+        <v>14</v>
+      </c>
+      <c r="I23" s="0">
+        <v>44</v>
+      </c>
+      <c r="J23" s="0">
+        <v>39</v>
+      </c>
+      <c r="K23" s="0">
+        <v>32</v>
+      </c>
+      <c r="L23" s="0">
+        <v>128</v>
+      </c>
+      <c r="M23" s="0">
+        <v>118</v>
+      </c>
+      <c r="N23" s="0">
+        <v>0.63409770834458379</v>
+      </c>
+      <c r="O23" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P23" s="0">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="0">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0">
+        <v>3</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F24" s="0">
+        <v>11</v>
+      </c>
+      <c r="G24" s="0">
+        <v>22</v>
+      </c>
+      <c r="H24" s="0">
+        <v>14</v>
+      </c>
+      <c r="I24" s="0">
+        <v>44</v>
+      </c>
+      <c r="J24" s="0">
+        <v>45</v>
+      </c>
+      <c r="K24" s="0">
+        <v>33</v>
+      </c>
+      <c r="L24" s="0">
+        <v>119</v>
+      </c>
+      <c r="M24" s="0">
+        <v>118</v>
+      </c>
+      <c r="N24" s="0">
+        <v>0.65909770834458381</v>
+      </c>
+      <c r="O24" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P24" s="0">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="0">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0">
+        <v>3</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F25" s="0">
+        <v>11</v>
+      </c>
+      <c r="G25" s="0">
+        <v>22</v>
+      </c>
+      <c r="H25" s="0">
+        <v>14</v>
+      </c>
+      <c r="I25" s="0">
+        <v>44</v>
+      </c>
+      <c r="J25" s="0">
+        <v>49</v>
+      </c>
+      <c r="K25" s="0">
+        <v>31</v>
+      </c>
+      <c r="L25" s="0">
+        <v>135</v>
+      </c>
+      <c r="M25" s="0">
+        <v>118</v>
+      </c>
+      <c r="N25" s="0">
+        <v>0.61409770834458377</v>
+      </c>
+      <c r="O25" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P25" s="0">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0">
+        <v>4</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F26" s="0">
+        <v>11</v>
+      </c>
+      <c r="G26" s="0">
+        <v>22</v>
+      </c>
+      <c r="H26" s="0">
+        <v>14</v>
+      </c>
+      <c r="I26" s="0">
+        <v>45</v>
+      </c>
+      <c r="J26" s="0">
+        <v>10</v>
+      </c>
+      <c r="K26" s="0">
+        <v>32</v>
+      </c>
+      <c r="L26" s="0">
+        <v>129</v>
+      </c>
+      <c r="M26" s="0">
+        <v>124</v>
+      </c>
+      <c r="N26" s="0">
+        <v>0.6303408694257544</v>
+      </c>
+      <c r="O26" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P26" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>4</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F27" s="0">
+        <v>11</v>
+      </c>
+      <c r="G27" s="0">
+        <v>22</v>
+      </c>
+      <c r="H27" s="0">
+        <v>14</v>
+      </c>
+      <c r="I27" s="0">
+        <v>45</v>
+      </c>
+      <c r="J27" s="0">
+        <v>13</v>
+      </c>
+      <c r="K27" s="0">
+        <v>33</v>
+      </c>
+      <c r="L27" s="0">
+        <v>122</v>
+      </c>
+      <c r="M27" s="0">
+        <v>124</v>
+      </c>
+      <c r="N27" s="0">
+        <v>0.65034086942575442</v>
+      </c>
+      <c r="O27" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P27" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="0">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0">
+        <v>4</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F28" s="0">
+        <v>11</v>
+      </c>
+      <c r="G28" s="0">
+        <v>22</v>
+      </c>
+      <c r="H28" s="0">
+        <v>14</v>
+      </c>
+      <c r="I28" s="0">
+        <v>45</v>
+      </c>
+      <c r="J28" s="0">
+        <v>20</v>
+      </c>
+      <c r="K28" s="0">
+        <v>31</v>
+      </c>
+      <c r="L28" s="0">
+        <v>136</v>
+      </c>
+      <c r="M28" s="0">
+        <v>124</v>
+      </c>
+      <c r="N28" s="0">
+        <v>0.61034086942575438</v>
+      </c>
+      <c r="O28" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P28" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="0">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0">
+        <v>5</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F29" s="0">
+        <v>11</v>
+      </c>
+      <c r="G29" s="0">
+        <v>22</v>
+      </c>
+      <c r="H29" s="0">
+        <v>14</v>
+      </c>
+      <c r="I29" s="0">
+        <v>45</v>
+      </c>
+      <c r="J29" s="0">
+        <v>52</v>
+      </c>
+      <c r="K29" s="0">
+        <v>31</v>
+      </c>
+      <c r="L29" s="0">
+        <v>130</v>
+      </c>
+      <c r="M29" s="0">
+        <v>131</v>
+      </c>
+      <c r="N29" s="0">
+        <v>0.62743452371495156</v>
+      </c>
+      <c r="O29" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P29" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="0">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0">
+        <v>5</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F30" s="0">
+        <v>11</v>
+      </c>
+      <c r="G30" s="0">
+        <v>22</v>
+      </c>
+      <c r="H30" s="0">
+        <v>14</v>
+      </c>
+      <c r="I30" s="0">
+        <v>45</v>
+      </c>
+      <c r="J30" s="0">
+        <v>56</v>
+      </c>
+      <c r="K30" s="0">
+        <v>33</v>
+      </c>
+      <c r="L30" s="0">
+        <v>120</v>
+      </c>
+      <c r="M30" s="0">
+        <v>131</v>
+      </c>
+      <c r="N30" s="0">
+        <v>0.65743452371495159</v>
+      </c>
+      <c r="O30" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P30" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="0">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0">
+        <v>5</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0">
+        <v>2023</v>
+      </c>
+      <c r="F31" s="0">
+        <v>11</v>
+      </c>
+      <c r="G31" s="0">
+        <v>22</v>
+      </c>
+      <c r="H31" s="0">
+        <v>14</v>
+      </c>
+      <c r="I31" s="0">
+        <v>46</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0">
+        <v>30</v>
+      </c>
+      <c r="L31" s="0">
+        <v>137</v>
+      </c>
+      <c r="M31" s="0">
+        <v>131</v>
+      </c>
+      <c r="N31" s="0">
+        <v>0.60743452371495155</v>
+      </c>
+      <c r="O31" s="0">
+        <v>0.0050000000000000001</v>
+      </c>
+      <c r="P31" s="0">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>